--- a/מבצע שומר החומות.xlsx
+++ b/מבצע שומר החומות.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GoogleTrendsTerrorWaves\GoogleTrendsTerrorWaves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60438EA2-7368-496B-AA70-971E29C4C171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C20E098-2249-4260-99AC-00A3D235C65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B683DDC3-106E-4D68-BBD1-BB45EC4CC0F5}"/>
   </bookViews>
@@ -1559,25 +1559,25 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2843,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB2BC75-0646-4013-942A-4C3AA23B5A40}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3661,7 +3661,7 @@
         <v>29</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3675,7 +3675,7 @@
         <v>95</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -3689,7 +3689,7 @@
         <v>49</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3703,7 +3703,7 @@
         <v>31</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
